--- a/Procedures/Franchise/Password.xlsx
+++ b/Procedures/Franchise/Password.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sources\Aquatiris\MVC\Procedures\Franchise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sources\Aquatiris\Docs\Procedures\Franchise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7096C0B2-FEFE-423C-A450-AB69A5ED8F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF6D9F0-1736-4EDE-8F12-3CF6B5D52A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="729">
   <si>
     <t>id_customer</t>
   </si>
@@ -2215,6 +2215,15 @@
   </si>
   <si>
     <t>contact@assainissement-en-vert.fr</t>
+  </si>
+  <si>
+    <t>DLegrand28!</t>
+  </si>
+  <si>
+    <t>YCoutinho45!</t>
+  </si>
+  <si>
+    <t>AGautier28!</t>
   </si>
 </sst>
 </file>
@@ -3043,8 +3052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B193" workbookViewId="0">
-      <selection activeCell="F222" sqref="F222"/>
+    <sheetView tabSelected="1" topLeftCell="B175" workbookViewId="0">
+      <selection activeCell="G190" sqref="G190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3115,7 +3124,7 @@
       </c>
       <c r="J2" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(97,122))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(97,122))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(1,9)</f>
-        <v>UkKxMJGJ9</v>
+        <v>FsXfPVMS7</v>
       </c>
       <c r="K2" t="s">
         <v>500</v>
@@ -3156,7 +3165,7 @@
       </c>
       <c r="J3" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(97,122))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(97,122))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(1,9)</f>
-        <v>QlKnEDVR4</v>
+        <v>HvBzYQPC5</v>
       </c>
       <c r="K3" t="s">
         <v>501</v>
@@ -3197,7 +3206,7 @@
       </c>
       <c r="J4" t="str">
         <f t="shared" ref="J4:J67" ca="1" si="2">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(97,122))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(97,122))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(1,9)</f>
-        <v>EeIiCCJE7</v>
+        <v>KsErIRCN9</v>
       </c>
       <c r="K4" t="s">
         <v>502</v>
@@ -3238,7 +3247,7 @@
       </c>
       <c r="J5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PqHoBAZC1</v>
+        <v>ViJxATUS2</v>
       </c>
       <c r="K5" t="s">
         <v>503</v>
@@ -3279,7 +3288,7 @@
       </c>
       <c r="J6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PzUfYTCK7</v>
+        <v>OrGeUIVW5</v>
       </c>
       <c r="K6" t="s">
         <v>504</v>
@@ -3320,7 +3329,7 @@
       </c>
       <c r="J7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>DpCzBZEO6</v>
+        <v>VlFjLKJR4</v>
       </c>
       <c r="K7" t="s">
         <v>505</v>
@@ -3361,7 +3370,7 @@
       </c>
       <c r="J8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>UbLrQURZ5</v>
+        <v>EhJmIPJQ5</v>
       </c>
       <c r="K8" t="s">
         <v>506</v>
@@ -3402,7 +3411,7 @@
       </c>
       <c r="J9" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(97,122))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(97,122))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(1,9)</f>
-        <v>EkGmVQTW1</v>
+        <v>TnRnLZJU8</v>
       </c>
       <c r="K9" t="s">
         <v>507</v>
@@ -3443,7 +3452,7 @@
       </c>
       <c r="J10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PbIuPOEG1</v>
+        <v>HzBnEZDX9</v>
       </c>
       <c r="K10" t="s">
         <v>508</v>
@@ -3484,7 +3493,7 @@
       </c>
       <c r="J11" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>KvZuSFCA1</v>
+        <v>JpYcNEAP3</v>
       </c>
       <c r="K11" t="s">
         <v>509</v>
@@ -3525,7 +3534,7 @@
       </c>
       <c r="J12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>VgEmRNBR5</v>
+        <v>FpExNVUK1</v>
       </c>
       <c r="K12" t="s">
         <v>510</v>
@@ -3566,7 +3575,7 @@
       </c>
       <c r="J13" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>GmQcARMF6</v>
+        <v>OzNbMTSW7</v>
       </c>
       <c r="K13" t="s">
         <v>511</v>
@@ -3607,7 +3616,7 @@
       </c>
       <c r="J14" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ZvWxKDNI9</v>
+        <v>OnUlVIAZ9</v>
       </c>
       <c r="K14" t="s">
         <v>512</v>
@@ -3648,7 +3657,7 @@
       </c>
       <c r="J15" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>HrVlPUVL7</v>
+        <v>UoYlQYBH1</v>
       </c>
       <c r="K15" t="s">
         <v>513</v>
@@ -3689,7 +3698,7 @@
       </c>
       <c r="J16" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LjZpNEZZ6</v>
+        <v>HuJbCLXP5</v>
       </c>
       <c r="K16" t="s">
         <v>514</v>
@@ -3730,7 +3739,7 @@
       </c>
       <c r="J17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>HlClQYZW4</v>
+        <v>VkKtWMKU4</v>
       </c>
       <c r="K17" t="s">
         <v>515</v>
@@ -3771,7 +3780,7 @@
       </c>
       <c r="J18" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>EuTmRGZE5</v>
+        <v>QlBjSYIP2</v>
       </c>
       <c r="K18" t="s">
         <v>516</v>
@@ -3812,7 +3821,7 @@
       </c>
       <c r="J19" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>IyLeNWMC8</v>
+        <v>DgHnBWVO8</v>
       </c>
       <c r="K19" t="s">
         <v>517</v>
@@ -3853,7 +3862,7 @@
       </c>
       <c r="J20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PpYdMAIW8</v>
+        <v>LkOwETMX5</v>
       </c>
       <c r="K20" t="s">
         <v>518</v>
@@ -3894,7 +3903,7 @@
       </c>
       <c r="J21" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>GyLqMDFX7</v>
+        <v>IeMuDXPJ6</v>
       </c>
       <c r="K21" t="s">
         <v>519</v>
@@ -3935,7 +3944,7 @@
       </c>
       <c r="J22" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ApWiGHGC5</v>
+        <v>XfWeWYLH6</v>
       </c>
       <c r="K22" t="s">
         <v>520</v>
@@ -3976,7 +3985,7 @@
       </c>
       <c r="J23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>KsGvHWLZ3</v>
+        <v>BzRsHQOW6</v>
       </c>
       <c r="K23" t="s">
         <v>521</v>
@@ -4017,7 +4026,7 @@
       </c>
       <c r="J24" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TsFdPSTT4</v>
+        <v>QuSnQTTN1</v>
       </c>
       <c r="K24" t="s">
         <v>522</v>
@@ -4058,7 +4067,7 @@
       </c>
       <c r="J25" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>UlDpMJGJ1</v>
+        <v>OuSvMOHW4</v>
       </c>
       <c r="K25" t="s">
         <v>523</v>
@@ -4099,7 +4108,7 @@
       </c>
       <c r="J26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OnIzGDLY7</v>
+        <v>BkLnMXRG1</v>
       </c>
       <c r="K26" t="s">
         <v>524</v>
@@ -4140,7 +4149,7 @@
       </c>
       <c r="J27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NfGdWBOL6</v>
+        <v>LlTnHRHA5</v>
       </c>
       <c r="K27" t="s">
         <v>525</v>
@@ -4181,7 +4190,7 @@
       </c>
       <c r="J28" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>XwItXNFR5</v>
+        <v>OePqFOYR7</v>
       </c>
       <c r="K28" t="s">
         <v>526</v>
@@ -4222,7 +4231,7 @@
       </c>
       <c r="J29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>YrWuEQHJ4</v>
+        <v>OfTlZBQY2</v>
       </c>
       <c r="K29" t="s">
         <v>527</v>
@@ -4263,7 +4272,7 @@
       </c>
       <c r="J30" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>WgGwTNFG7</v>
+        <v>YfFrFNFN9</v>
       </c>
       <c r="K30" t="s">
         <v>528</v>
@@ -4304,7 +4313,7 @@
       </c>
       <c r="J31" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FiWsCGEX8</v>
+        <v>HqUaKYAW2</v>
       </c>
       <c r="K31" t="s">
         <v>529</v>
@@ -4345,7 +4354,7 @@
       </c>
       <c r="J32" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>KyNtVUTP2</v>
+        <v>YwSoZLEC5</v>
       </c>
       <c r="K32" t="s">
         <v>530</v>
@@ -4386,7 +4395,7 @@
       </c>
       <c r="J33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ViSzDKKR5</v>
+        <v>FtTvZABT5</v>
       </c>
       <c r="K33" t="s">
         <v>531</v>
@@ -4427,7 +4436,7 @@
       </c>
       <c r="J34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OdFlOZLK7</v>
+        <v>CrYoKYJN3</v>
       </c>
       <c r="K34" t="s">
         <v>532</v>
@@ -4468,7 +4477,7 @@
       </c>
       <c r="J35" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>DxNeYRAA7</v>
+        <v>UhYcBMJN2</v>
       </c>
       <c r="K35" t="s">
         <v>533</v>
@@ -4509,7 +4518,7 @@
       </c>
       <c r="J36" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BmEcRWHI7</v>
+        <v>FeXeLZHS3</v>
       </c>
       <c r="K36" t="s">
         <v>534</v>
@@ -4550,7 +4559,7 @@
       </c>
       <c r="J37" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>YmJsHKYO6</v>
+        <v>OwGfWEKI4</v>
       </c>
       <c r="K37" t="s">
         <v>535</v>
@@ -4591,7 +4600,7 @@
       </c>
       <c r="J38" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>MpBfMZAT5</v>
+        <v>NqIeAXOV4</v>
       </c>
       <c r="K38" t="s">
         <v>536</v>
@@ -4632,7 +4641,7 @@
       </c>
       <c r="J39" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>WzEpNNDC7</v>
+        <v>GhAdVZXC8</v>
       </c>
       <c r="K39" t="s">
         <v>537</v>
@@ -4673,7 +4682,7 @@
       </c>
       <c r="J40" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ZvPmRYCG7</v>
+        <v>RsQhGMPA4</v>
       </c>
       <c r="K40" t="s">
         <v>538</v>
@@ -4714,7 +4723,7 @@
       </c>
       <c r="J41" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>VdYqTRZQ1</v>
+        <v>PvLjDZNZ2</v>
       </c>
       <c r="K41" t="s">
         <v>539</v>
@@ -4755,7 +4764,7 @@
       </c>
       <c r="J42" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FwPiYTPZ1</v>
+        <v>LxRxHJOE2</v>
       </c>
       <c r="K42" t="s">
         <v>540</v>
@@ -4796,7 +4805,7 @@
       </c>
       <c r="J43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ZsSpUWLV9</v>
+        <v>KxVhIFMZ2</v>
       </c>
       <c r="K43" t="s">
         <v>541</v>
@@ -4837,7 +4846,7 @@
       </c>
       <c r="J44" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>EcDyLEKW1</v>
+        <v>TwSaSFST9</v>
       </c>
       <c r="K44" t="s">
         <v>542</v>
@@ -4878,7 +4887,7 @@
       </c>
       <c r="J45" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TkVaDMTO7</v>
+        <v>HhKwDTQY8</v>
       </c>
       <c r="K45" t="s">
         <v>543</v>
@@ -4919,7 +4928,7 @@
       </c>
       <c r="J46" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BpIkICBH9</v>
+        <v>PbAyJHTB4</v>
       </c>
       <c r="K46" t="s">
         <v>544</v>
@@ -4960,7 +4969,7 @@
       </c>
       <c r="J47" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NeZwWTYR8</v>
+        <v>XvUsKRPF5</v>
       </c>
       <c r="K47" t="s">
         <v>545</v>
@@ -5001,7 +5010,7 @@
       </c>
       <c r="J48" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>XaNkRSHX7</v>
+        <v>QrCbYIYN3</v>
       </c>
       <c r="K48" t="s">
         <v>546</v>
@@ -5042,7 +5051,7 @@
       </c>
       <c r="J49" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>QtSiYIXN5</v>
+        <v>XqAdNMJS3</v>
       </c>
       <c r="K49" t="s">
         <v>547</v>
@@ -5083,7 +5092,7 @@
       </c>
       <c r="J50" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>KaHsLNEM9</v>
+        <v>JmHhSJUU2</v>
       </c>
       <c r="K50" t="s">
         <v>548</v>
@@ -5124,7 +5133,7 @@
       </c>
       <c r="J51" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BmTxIKXS8</v>
+        <v>NaPvENEE1</v>
       </c>
       <c r="K51" t="s">
         <v>549</v>
@@ -5165,7 +5174,7 @@
       </c>
       <c r="J52" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>DhDwKNFZ8</v>
+        <v>VzEoBNEY5</v>
       </c>
       <c r="K52" t="s">
         <v>550</v>
@@ -5206,7 +5215,7 @@
       </c>
       <c r="J53" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>GbTxDRNC8</v>
+        <v>CbBaLSWR4</v>
       </c>
       <c r="K53" t="s">
         <v>551</v>
@@ -5247,7 +5256,7 @@
       </c>
       <c r="J54" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>WpCjNZFX6</v>
+        <v>UsNmHTPC7</v>
       </c>
       <c r="K54" t="s">
         <v>552</v>
@@ -5288,7 +5297,7 @@
       </c>
       <c r="J55" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>VqVhZOEH5</v>
+        <v>FcCxXRLC7</v>
       </c>
       <c r="K55" t="s">
         <v>553</v>
@@ -5329,7 +5338,7 @@
       </c>
       <c r="J56" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NyLcMACW7</v>
+        <v>EkGeIFMC6</v>
       </c>
       <c r="K56" t="s">
         <v>554</v>
@@ -5370,7 +5379,7 @@
       </c>
       <c r="J57" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>XiRqWJHH6</v>
+        <v>RxUzCXPO5</v>
       </c>
       <c r="K57" t="s">
         <v>555</v>
@@ -5411,7 +5420,7 @@
       </c>
       <c r="J58" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>EoLbRARJ3</v>
+        <v>AnJiGCST5</v>
       </c>
       <c r="K58" t="s">
         <v>556</v>
@@ -5452,7 +5461,7 @@
       </c>
       <c r="J59" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>UyQtMZIE5</v>
+        <v>RaYjTLIT1</v>
       </c>
       <c r="K59" t="s">
         <v>557</v>
@@ -5493,7 +5502,7 @@
       </c>
       <c r="J60" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AyQgXLYV6</v>
+        <v>YfUtQNCY6</v>
       </c>
       <c r="K60" t="s">
         <v>558</v>
@@ -5534,7 +5543,7 @@
       </c>
       <c r="J61" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BvSkHJCH7</v>
+        <v>ZgCzAXEI3</v>
       </c>
       <c r="K61" t="s">
         <v>559</v>
@@ -5575,7 +5584,7 @@
       </c>
       <c r="J62" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>WrQbJDWD1</v>
+        <v>MgKtLFXS6</v>
       </c>
       <c r="K62" t="s">
         <v>560</v>
@@ -5616,7 +5625,7 @@
       </c>
       <c r="J63" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>RiAcMSJR9</v>
+        <v>BsAfYLLR3</v>
       </c>
       <c r="K63" t="s">
         <v>561</v>
@@ -5657,7 +5666,7 @@
       </c>
       <c r="J64" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OiVyWARC5</v>
+        <v>BhMwOBKJ6</v>
       </c>
       <c r="K64" t="s">
         <v>562</v>
@@ -5698,7 +5707,7 @@
       </c>
       <c r="J65" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>QxKkIZEC4</v>
+        <v>OmOfYJOM7</v>
       </c>
       <c r="K65" t="s">
         <v>563</v>
@@ -5739,7 +5748,7 @@
       </c>
       <c r="J66" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>UyDsQCNB5</v>
+        <v>CyKkBYXC6</v>
       </c>
       <c r="K66" t="s">
         <v>564</v>
@@ -5780,7 +5789,7 @@
       </c>
       <c r="J67" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PlSpDYLA5</v>
+        <v>NcHeVZXE8</v>
       </c>
       <c r="K67" t="s">
         <v>565</v>
@@ -5821,7 +5830,7 @@
       </c>
       <c r="J68" t="str">
         <f t="shared" ref="J68:J131" ca="1" si="7">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(97,122))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(97,122))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(1,9)</f>
-        <v>JcHzJHEQ3</v>
+        <v>QzJoVOKD9</v>
       </c>
       <c r="K68" t="s">
         <v>566</v>
@@ -5862,7 +5871,7 @@
       </c>
       <c r="J69" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>NxQxYGFT7</v>
+        <v>XyWbFXOW8</v>
       </c>
       <c r="K69" t="s">
         <v>567</v>
@@ -5903,7 +5912,7 @@
       </c>
       <c r="J70" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>LeRyYFEH6</v>
+        <v>AiKkXROO6</v>
       </c>
       <c r="K70" t="s">
         <v>568</v>
@@ -5944,7 +5953,7 @@
       </c>
       <c r="J71" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>SkKjGDUT2</v>
+        <v>PcEhVNUT7</v>
       </c>
       <c r="K71" t="s">
         <v>569</v>
@@ -5985,7 +5994,7 @@
       </c>
       <c r="J72" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>SnFcNCTJ7</v>
+        <v>DpWeGINJ7</v>
       </c>
       <c r="K72" t="s">
         <v>570</v>
@@ -6026,7 +6035,7 @@
       </c>
       <c r="J73" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>JeSfXLYA3</v>
+        <v>WkWpBDEI2</v>
       </c>
       <c r="K73" t="s">
         <v>571</v>
@@ -6067,7 +6076,7 @@
       </c>
       <c r="J74" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>IsMaMIWG7</v>
+        <v>WlMhZIVZ9</v>
       </c>
       <c r="K74" t="s">
         <v>572</v>
@@ -6108,7 +6117,7 @@
       </c>
       <c r="J75" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>ZsUhHDTN4</v>
+        <v>KeNiTLAH9</v>
       </c>
       <c r="K75" t="s">
         <v>573</v>
@@ -6149,7 +6158,7 @@
       </c>
       <c r="J76" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>FfBhZMWN6</v>
+        <v>YeUkOZQL9</v>
       </c>
       <c r="K76" t="s">
         <v>574</v>
@@ -6190,7 +6199,7 @@
       </c>
       <c r="J77" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>KbIpOMNS4</v>
+        <v>KqJjCTGK7</v>
       </c>
       <c r="K77" t="s">
         <v>575</v>
@@ -6231,7 +6240,7 @@
       </c>
       <c r="J78" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>ByWvEVKR6</v>
+        <v>OrCwSOGX5</v>
       </c>
       <c r="K78" t="s">
         <v>576</v>
@@ -6272,7 +6281,7 @@
       </c>
       <c r="J79" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>LgWwTLHU1</v>
+        <v>TrBnSCFD1</v>
       </c>
       <c r="K79" t="s">
         <v>577</v>
@@ -6313,7 +6322,7 @@
       </c>
       <c r="J80" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>NpXbFNZD9</v>
+        <v>KcSyWHLX4</v>
       </c>
       <c r="K80" t="s">
         <v>578</v>
@@ -6354,7 +6363,7 @@
       </c>
       <c r="J81" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>PkTrVKBF4</v>
+        <v>TlHsACRK1</v>
       </c>
       <c r="K81" t="s">
         <v>579</v>
@@ -6395,7 +6404,7 @@
       </c>
       <c r="J82" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>FkHgHMSG4</v>
+        <v>WxRjNFIO3</v>
       </c>
       <c r="K82" t="s">
         <v>580</v>
@@ -6436,7 +6445,7 @@
       </c>
       <c r="J83" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>GsGmCLWC3</v>
+        <v>IpVnFXXR7</v>
       </c>
       <c r="K83" t="s">
         <v>581</v>
@@ -6477,7 +6486,7 @@
       </c>
       <c r="J84" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>LhHdLJYH9</v>
+        <v>YiPvMCEB9</v>
       </c>
       <c r="K84" t="s">
         <v>582</v>
@@ -6518,7 +6527,7 @@
       </c>
       <c r="J85" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>ZuEhCVOG1</v>
+        <v>YaHhYKNS9</v>
       </c>
       <c r="K85" t="s">
         <v>583</v>
@@ -6559,7 +6568,7 @@
       </c>
       <c r="J86" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>CnXqBRZB9</v>
+        <v>HtZqPHQQ9</v>
       </c>
       <c r="K86" t="s">
         <v>584</v>
@@ -6600,7 +6609,7 @@
       </c>
       <c r="J87" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>EwNvWVYM2</v>
+        <v>QoMfYLOB4</v>
       </c>
       <c r="K87" t="s">
         <v>585</v>
@@ -6641,7 +6650,7 @@
       </c>
       <c r="J88" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>FtSzVQRP9</v>
+        <v>NqHaYIQF1</v>
       </c>
       <c r="K88" t="s">
         <v>586</v>
@@ -6682,7 +6691,7 @@
       </c>
       <c r="J89" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>YsYeZOSR3</v>
+        <v>XtBaQJCP3</v>
       </c>
       <c r="K89" t="s">
         <v>587</v>
@@ -6723,7 +6732,7 @@
       </c>
       <c r="J90" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>QeYuBZTX1</v>
+        <v>MpEfEDAC9</v>
       </c>
       <c r="K90" t="s">
         <v>588</v>
@@ -6764,7 +6773,7 @@
       </c>
       <c r="J91" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>VoZjQUAV8</v>
+        <v>YuUlULQT9</v>
       </c>
       <c r="K91" t="s">
         <v>589</v>
@@ -6805,7 +6814,7 @@
       </c>
       <c r="J92" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>AcGlCFJP8</v>
+        <v>MtSeDPUY4</v>
       </c>
       <c r="K92" t="s">
         <v>590</v>
@@ -6846,7 +6855,7 @@
       </c>
       <c r="J93" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>KpOvGFWK3</v>
+        <v>XzIjMJIQ4</v>
       </c>
       <c r="K93" t="s">
         <v>591</v>
@@ -6887,7 +6896,7 @@
       </c>
       <c r="J94" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>VpMnINFN7</v>
+        <v>MrSmCMSN7</v>
       </c>
       <c r="K94" t="s">
         <v>592</v>
@@ -6928,7 +6937,7 @@
       </c>
       <c r="J95" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>EdJySZSY7</v>
+        <v>DdAaEHJK3</v>
       </c>
       <c r="K95" t="s">
         <v>593</v>
@@ -6969,7 +6978,7 @@
       </c>
       <c r="J96" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>GlGqDMZA7</v>
+        <v>XhYwRRIV8</v>
       </c>
       <c r="K96" t="s">
         <v>594</v>
@@ -7010,7 +7019,7 @@
       </c>
       <c r="J97" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>AqLgQGZX9</v>
+        <v>NeKyHAVM7</v>
       </c>
       <c r="K97" t="s">
         <v>595</v>
@@ -7051,7 +7060,7 @@
       </c>
       <c r="J98" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>FiRpEYAC6</v>
+        <v>SrXjGLKY6</v>
       </c>
       <c r="K98" t="s">
         <v>596</v>
@@ -7092,7 +7101,7 @@
       </c>
       <c r="J99" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>YxWzZANC8</v>
+        <v>MaUzIAYB3</v>
       </c>
       <c r="K99" t="s">
         <v>597</v>
@@ -7133,7 +7142,7 @@
       </c>
       <c r="J100" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>UxIkOCNN3</v>
+        <v>RvDsNYVT1</v>
       </c>
       <c r="K100" t="s">
         <v>598</v>
@@ -7174,7 +7183,7 @@
       </c>
       <c r="J101" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>DvKbCJRM9</v>
+        <v>RfEwIYUB6</v>
       </c>
       <c r="K101" t="s">
         <v>599</v>
@@ -7215,7 +7224,7 @@
       </c>
       <c r="J102" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>UfZoPKQP9</v>
+        <v>QdFkXQTJ9</v>
       </c>
       <c r="K102" t="s">
         <v>600</v>
@@ -7256,7 +7265,7 @@
       </c>
       <c r="J103" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>MsZzKCZR5</v>
+        <v>ZsIiKYEP9</v>
       </c>
       <c r="K103" t="s">
         <v>601</v>
@@ -7297,7 +7306,7 @@
       </c>
       <c r="J104" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>OcPeHGZO4</v>
+        <v>EdYmOIIS3</v>
       </c>
       <c r="K104" t="s">
         <v>602</v>
@@ -7338,7 +7347,7 @@
       </c>
       <c r="J105" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>KqYhDLGC7</v>
+        <v>LpItGSDI2</v>
       </c>
       <c r="K105" t="s">
         <v>603</v>
@@ -7379,7 +7388,7 @@
       </c>
       <c r="J106" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>QpHfGIHI1</v>
+        <v>RbHvXBJJ1</v>
       </c>
       <c r="K106" t="s">
         <v>604</v>
@@ -7420,7 +7429,7 @@
       </c>
       <c r="J107" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>OtBdZBAB7</v>
+        <v>QnLcFAKH8</v>
       </c>
       <c r="K107" t="s">
         <v>605</v>
@@ -7461,7 +7470,7 @@
       </c>
       <c r="J108" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>ReNxRXPG4</v>
+        <v>DdCdWFTC9</v>
       </c>
       <c r="K108" t="s">
         <v>606</v>
@@ -7502,7 +7511,7 @@
       </c>
       <c r="J109" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>AhCdSYIX5</v>
+        <v>VeTrLKRD1</v>
       </c>
       <c r="K109" t="s">
         <v>607</v>
@@ -7543,7 +7552,7 @@
       </c>
       <c r="J110" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>HsUtCFGQ7</v>
+        <v>QfZvXABH2</v>
       </c>
       <c r="K110" t="s">
         <v>608</v>
@@ -7584,7 +7593,7 @@
       </c>
       <c r="J111" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>QuAiVCOV7</v>
+        <v>WhQjTMIK6</v>
       </c>
       <c r="K111" t="s">
         <v>609</v>
@@ -7625,7 +7634,7 @@
       </c>
       <c r="J112" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>ZePmSCFA1</v>
+        <v>PpRrNSMX1</v>
       </c>
       <c r="K112" t="s">
         <v>610</v>
@@ -7666,7 +7675,7 @@
       </c>
       <c r="J113" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>EoRoRFNN7</v>
+        <v>ZaKiUXVC8</v>
       </c>
       <c r="K113" t="s">
         <v>611</v>
@@ -7707,7 +7716,7 @@
       </c>
       <c r="J114" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>XiWoFDUD9</v>
+        <v>JfRjVDXG2</v>
       </c>
       <c r="K114" t="s">
         <v>612</v>
@@ -7748,7 +7757,7 @@
       </c>
       <c r="J115" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>IqYmMQTE1</v>
+        <v>XjYcUANV2</v>
       </c>
       <c r="K115" t="s">
         <v>613</v>
@@ -7789,7 +7798,7 @@
       </c>
       <c r="J116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>NdDbKRFQ9</v>
+        <v>WzJnZATK4</v>
       </c>
       <c r="K116" t="s">
         <v>614</v>
@@ -7830,7 +7839,7 @@
       </c>
       <c r="J117" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>EyMuQRCB3</v>
+        <v>ZzNjCPJQ3</v>
       </c>
       <c r="K117" t="s">
         <v>615</v>
@@ -7871,7 +7880,7 @@
       </c>
       <c r="J118" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>WyAcMVNH7</v>
+        <v>ZcAoSZNN1</v>
       </c>
       <c r="K118" t="s">
         <v>616</v>
@@ -7912,7 +7921,7 @@
       </c>
       <c r="J119" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>JjBrWZKN9</v>
+        <v>MxJcSJAR7</v>
       </c>
       <c r="K119" t="s">
         <v>617</v>
@@ -7953,7 +7962,7 @@
       </c>
       <c r="J120" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>FiYaVEQY6</v>
+        <v>UhLwNCGH3</v>
       </c>
       <c r="K120" t="s">
         <v>618</v>
@@ -7994,7 +8003,7 @@
       </c>
       <c r="J121" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>XwIqYXKA9</v>
+        <v>BzMrGGEQ8</v>
       </c>
       <c r="K121" t="s">
         <v>619</v>
@@ -8035,7 +8044,7 @@
       </c>
       <c r="J122" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>HrBoYJEZ7</v>
+        <v>QtZtVFBA4</v>
       </c>
       <c r="K122" t="s">
         <v>620</v>
@@ -8076,7 +8085,7 @@
       </c>
       <c r="J123" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>KxQuZDEQ3</v>
+        <v>EwUgVBGH4</v>
       </c>
       <c r="K123" t="s">
         <v>621</v>
@@ -8117,7 +8126,7 @@
       </c>
       <c r="J124" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>DtXxGEPG1</v>
+        <v>HhRoLYWL8</v>
       </c>
       <c r="K124" t="s">
         <v>622</v>
@@ -8158,7 +8167,7 @@
       </c>
       <c r="J125" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>VuPvUTOS1</v>
+        <v>TvLaVLPC9</v>
       </c>
       <c r="K125" t="s">
         <v>623</v>
@@ -8199,7 +8208,7 @@
       </c>
       <c r="J126" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>OnWgSZAV6</v>
+        <v>FaQtXPED4</v>
       </c>
       <c r="K126" t="s">
         <v>624</v>
@@ -8240,7 +8249,7 @@
       </c>
       <c r="J127" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>JaApSMBY6</v>
+        <v>PtYwPWDO9</v>
       </c>
       <c r="K127" t="s">
         <v>625</v>
@@ -8281,7 +8290,7 @@
       </c>
       <c r="J128" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>OoYgHRUM8</v>
+        <v>UpIeTBOT8</v>
       </c>
       <c r="K128" t="s">
         <v>626</v>
@@ -8322,7 +8331,7 @@
       </c>
       <c r="J129" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>TlExDMRX3</v>
+        <v>YzLyGFIN2</v>
       </c>
       <c r="K129" t="s">
         <v>627</v>
@@ -8363,7 +8372,7 @@
       </c>
       <c r="J130" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>TlJrEKGA1</v>
+        <v>EbCkCWTW4</v>
       </c>
       <c r="K130" t="s">
         <v>628</v>
@@ -8404,7 +8413,7 @@
       </c>
       <c r="J131" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>ReOsCQYO9</v>
+        <v>UhWtFTZP7</v>
       </c>
       <c r="K131" t="s">
         <v>629</v>
@@ -8445,7 +8454,7 @@
       </c>
       <c r="J132" t="str">
         <f t="shared" ref="J132:J185" ca="1" si="12">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(97,122))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(97,122))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(1,9)</f>
-        <v>CvVuKPAC5</v>
+        <v>QkNyGIQT7</v>
       </c>
       <c r="K132" t="s">
         <v>630</v>
@@ -8486,7 +8495,7 @@
       </c>
       <c r="J133" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>HzNmTDMO1</v>
+        <v>WlIrBDVN2</v>
       </c>
       <c r="K133" t="s">
         <v>631</v>
@@ -8527,7 +8536,7 @@
       </c>
       <c r="J134" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>NbAoBOVB8</v>
+        <v>AaWsWXGR6</v>
       </c>
       <c r="K134" t="s">
         <v>632</v>
@@ -8568,7 +8577,7 @@
       </c>
       <c r="J135" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>VzOgVHLW9</v>
+        <v>HuZgTGLG8</v>
       </c>
       <c r="K135" t="s">
         <v>633</v>
@@ -8609,7 +8618,7 @@
       </c>
       <c r="J136" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>VxKmFEVM5</v>
+        <v>XuNtZNBV2</v>
       </c>
       <c r="K136" t="s">
         <v>634</v>
@@ -8650,7 +8659,7 @@
       </c>
       <c r="J137" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>BjJuHKVU7</v>
+        <v>ZeSzBLGF3</v>
       </c>
       <c r="K137" t="s">
         <v>635</v>
@@ -8691,7 +8700,7 @@
       </c>
       <c r="J138" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>HtJaYXCM1</v>
+        <v>FnWdBZSF6</v>
       </c>
       <c r="K138" t="s">
         <v>636</v>
@@ -8732,7 +8741,7 @@
       </c>
       <c r="J139" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>DoCcMSEB5</v>
+        <v>SqLjYDOZ1</v>
       </c>
       <c r="K139" t="s">
         <v>637</v>
@@ -8773,7 +8782,7 @@
       </c>
       <c r="J140" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>RdSiTLKU6</v>
+        <v>QqUcZYCH4</v>
       </c>
       <c r="K140" t="s">
         <v>638</v>
@@ -8814,7 +8823,7 @@
       </c>
       <c r="J141" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>RbBhSOXQ3</v>
+        <v>PbToPHDJ6</v>
       </c>
       <c r="K141" t="s">
         <v>639</v>
@@ -8855,7 +8864,7 @@
       </c>
       <c r="J142" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>MfBwGUYV5</v>
+        <v>ZaPlIQTT1</v>
       </c>
       <c r="K142" t="s">
         <v>640</v>
@@ -8896,7 +8905,7 @@
       </c>
       <c r="J143" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>PkYkCOWM9</v>
+        <v>FwKhYLJG5</v>
       </c>
       <c r="K143" t="s">
         <v>641</v>
@@ -8937,7 +8946,7 @@
       </c>
       <c r="J144" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>XtKdHKMU3</v>
+        <v>DrXhGYKX6</v>
       </c>
       <c r="K144" t="s">
         <v>642</v>
@@ -8978,7 +8987,7 @@
       </c>
       <c r="J145" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>MhZyEKYH8</v>
+        <v>IpBsOKBK3</v>
       </c>
       <c r="K145" t="s">
         <v>643</v>
@@ -9019,7 +9028,7 @@
       </c>
       <c r="J146" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>XyHoNAIV5</v>
+        <v>JzBxBIAM3</v>
       </c>
       <c r="K146" t="s">
         <v>644</v>
@@ -9060,7 +9069,7 @@
       </c>
       <c r="J147" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>YsBvGDPN5</v>
+        <v>ThOpZHOK3</v>
       </c>
       <c r="K147" t="s">
         <v>645</v>
@@ -9101,7 +9110,7 @@
       </c>
       <c r="J148" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>UwBqBCLD6</v>
+        <v>LlOpDJQQ7</v>
       </c>
       <c r="K148" t="s">
         <v>646</v>
@@ -9142,7 +9151,7 @@
       </c>
       <c r="J149" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>CwZhEQWA6</v>
+        <v>OgNdUQHL6</v>
       </c>
       <c r="K149" t="s">
         <v>647</v>
@@ -9183,7 +9192,7 @@
       </c>
       <c r="J150" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>ZgPdFQVV6</v>
+        <v>PgQmEVAK2</v>
       </c>
       <c r="K150" t="s">
         <v>648</v>
@@ -9224,7 +9233,7 @@
       </c>
       <c r="J151" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>OqHcWINZ7</v>
+        <v>RrAqEXKX6</v>
       </c>
       <c r="K151" t="s">
         <v>649</v>
@@ -9265,7 +9274,7 @@
       </c>
       <c r="J152" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>EpHyOHDN9</v>
+        <v>QnSsBDPZ2</v>
       </c>
       <c r="K152" t="s">
         <v>650</v>
@@ -9306,7 +9315,7 @@
       </c>
       <c r="J153" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>WrCnBZYB9</v>
+        <v>YwDtECRS3</v>
       </c>
       <c r="K153" t="s">
         <v>651</v>
@@ -9347,7 +9356,7 @@
       </c>
       <c r="J154" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>WkAbBZBU2</v>
+        <v>QjQwKVTL6</v>
       </c>
       <c r="K154" t="s">
         <v>652</v>
@@ -9388,7 +9397,7 @@
       </c>
       <c r="J155" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>QdXkMUFU7</v>
+        <v>DbWpMAII5</v>
       </c>
       <c r="K155" t="s">
         <v>653</v>
@@ -9429,7 +9438,7 @@
       </c>
       <c r="J156" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>KnWkUNJY9</v>
+        <v>IzIpDYZH3</v>
       </c>
       <c r="K156" t="s">
         <v>654</v>
@@ -9470,7 +9479,7 @@
       </c>
       <c r="J157" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>ViXiDQDG5</v>
+        <v>TfPuKAXK2</v>
       </c>
       <c r="K157" t="s">
         <v>655</v>
@@ -9511,7 +9520,7 @@
       </c>
       <c r="J158" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>ImNxPYFC9</v>
+        <v>BvKnFPKN3</v>
       </c>
       <c r="K158" t="s">
         <v>656</v>
@@ -9552,7 +9561,7 @@
       </c>
       <c r="J159" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>CvOvKQXM4</v>
+        <v>ZdIyCNGV1</v>
       </c>
       <c r="K159" t="s">
         <v>657</v>
@@ -9593,7 +9602,7 @@
       </c>
       <c r="J160" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>VcFfFSMI8</v>
+        <v>HsWoKXUE8</v>
       </c>
       <c r="K160" t="s">
         <v>658</v>
@@ -9634,7 +9643,7 @@
       </c>
       <c r="J161" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>NbZhBLYM9</v>
+        <v>AdJbRZPP5</v>
       </c>
       <c r="K161" t="s">
         <v>659</v>
@@ -9675,7 +9684,7 @@
       </c>
       <c r="J162" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>HvYmTLRI4</v>
+        <v>HkJpPDSV5</v>
       </c>
       <c r="K162" t="s">
         <v>660</v>
@@ -9716,7 +9725,7 @@
       </c>
       <c r="J163" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>GwGrAFSZ9</v>
+        <v>BjZpWPDH1</v>
       </c>
       <c r="K163" t="s">
         <v>661</v>
@@ -9757,7 +9766,7 @@
       </c>
       <c r="J164" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>YtEfZOHP1</v>
+        <v>UaHsTFTF3</v>
       </c>
       <c r="K164" t="s">
         <v>662</v>
@@ -9798,7 +9807,7 @@
       </c>
       <c r="J165" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>ItKhCOOR5</v>
+        <v>VrLrIHQY9</v>
       </c>
       <c r="K165" t="s">
         <v>663</v>
@@ -9839,7 +9848,7 @@
       </c>
       <c r="J166" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>FfVzYFFO9</v>
+        <v>OrTlRCWI5</v>
       </c>
       <c r="K166" t="s">
         <v>664</v>
@@ -9880,7 +9889,7 @@
       </c>
       <c r="J167" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>XpJkMSAZ3</v>
+        <v>SsEpOQQQ2</v>
       </c>
       <c r="K167" t="s">
         <v>665</v>
@@ -9921,7 +9930,7 @@
       </c>
       <c r="J168" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>LjKeNAGM2</v>
+        <v>UyJhGUBF3</v>
       </c>
       <c r="K168" t="s">
         <v>666</v>
@@ -9962,7 +9971,7 @@
       </c>
       <c r="J169" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>OuBtRETU1</v>
+        <v>TsQrZLAL8</v>
       </c>
       <c r="K169" t="s">
         <v>667</v>
@@ -10003,7 +10012,7 @@
       </c>
       <c r="J170" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>QyIsQLIC4</v>
+        <v>EmLeZHJJ4</v>
       </c>
       <c r="K170" t="s">
         <v>668</v>
@@ -10044,7 +10053,7 @@
       </c>
       <c r="J171" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>IiVrVWVC9</v>
+        <v>JxBjCHUD1</v>
       </c>
       <c r="K171" t="s">
         <v>669</v>
@@ -10085,7 +10094,7 @@
       </c>
       <c r="J172" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>YaAhYPEP6</v>
+        <v>EwPuMRMJ2</v>
       </c>
       <c r="K172" t="s">
         <v>670</v>
@@ -10126,7 +10135,7 @@
       </c>
       <c r="J173" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>PxChAMXC5</v>
+        <v>WrToDVJU2</v>
       </c>
       <c r="K173" t="s">
         <v>671</v>
@@ -10167,7 +10176,7 @@
       </c>
       <c r="J174" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>AkJyHMCY4</v>
+        <v>ZfRuRAWT8</v>
       </c>
       <c r="K174" t="s">
         <v>672</v>
@@ -10208,7 +10217,7 @@
       </c>
       <c r="J175" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>KcCbQNBJ1</v>
+        <v>TcEaEPPQ5</v>
       </c>
       <c r="K175" t="s">
         <v>673</v>
@@ -10249,7 +10258,7 @@
       </c>
       <c r="J176" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>JnBpJFUH1</v>
+        <v>TgZtZPOY7</v>
       </c>
       <c r="K176" t="s">
         <v>674</v>
@@ -10290,7 +10299,7 @@
       </c>
       <c r="J177" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>UbCnSVGC8</v>
+        <v>WwJdUCCY6</v>
       </c>
       <c r="K177" t="s">
         <v>675</v>
@@ -10331,7 +10340,7 @@
       </c>
       <c r="J178" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>QiSpZCQN1</v>
+        <v>DwRcZQHI7</v>
       </c>
       <c r="K178" t="s">
         <v>676</v>
@@ -10372,7 +10381,7 @@
       </c>
       <c r="J179" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>IjBmXNYZ2</v>
+        <v>LvBuSJEX9</v>
       </c>
       <c r="K179" t="s">
         <v>677</v>
@@ -10413,7 +10422,7 @@
       </c>
       <c r="J180" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>KyKuBPBA3</v>
+        <v>HvChNCXQ1</v>
       </c>
       <c r="K180" t="s">
         <v>678</v>
@@ -10454,7 +10463,7 @@
       </c>
       <c r="J181" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>ZoNmEQRV7</v>
+        <v>WjGlRZTG1</v>
       </c>
       <c r="K181" t="s">
         <v>679</v>
@@ -10471,7 +10480,7 @@
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J182" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>KuAfCVMN7</v>
+        <v>GrDtUPJE9</v>
       </c>
       <c r="K182" t="s">
         <v>680</v>
@@ -10480,25 +10489,31 @@
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J183" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>YqWkENQC6</v>
+        <v>DkCjXXSS9</v>
       </c>
       <c r="K183" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F184" s="1" t="s">
+        <v>727</v>
+      </c>
       <c r="J184" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>XrXjVUHV9</v>
+        <v>KoVwOEIM6</v>
       </c>
       <c r="K184" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F185" s="1" t="s">
+        <v>726</v>
+      </c>
       <c r="J185" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>LdUpAHQU7</v>
+        <v>AmBnQUVQ2</v>
       </c>
       <c r="K185" t="s">
         <v>683</v>
@@ -10509,11 +10524,11 @@
         <v>684</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>695</v>
+        <v>728</v>
       </c>
       <c r="G188" t="str">
         <f>CONCATENATE(E188,F188)</f>
-        <v>ANTJnTKsaVfxVtYNIpWt16MYKOspdjGJanpuCQTfu58qTzS0S7qZ5iDEMBerthelot79!</v>
+        <v>ANTJnTKsaVfxVtYNIpWt16MYKOspdjGJanpuCQTfu58qTzS0S7qZ5iDEAGautier28!</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -10534,7 +10549,7 @@
       </c>
       <c r="G190" t="str">
         <f>SUBSTITUTE(G189,"##CHAINE##",G188)</f>
-        <v>Select md5('ANTJnTKsaVfxVtYNIpWt16MYKOspdjGJanpuCQTfu58qTzS0S7qZ5iDEMBerthelot79!')</v>
+        <v>Select md5('ANTJnTKsaVfxVtYNIpWt16MYKOspdjGJanpuCQTfu58qTzS0S7qZ5iDEAGautier28!')</v>
       </c>
     </row>
     <row r="193" spans="2:14" x14ac:dyDescent="0.25">
@@ -10899,16 +10914,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F188" r:id="rId1" display="P@trick07" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F193" r:id="rId2" display="P@trick07" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B198" r:id="rId3" xr:uid="{BB7752F3-F377-464B-ADE3-F79EDBBA4667}"/>
-    <hyperlink ref="B199" r:id="rId4" xr:uid="{EB82F820-B1BE-4073-8CD0-038EBFA4D55B}"/>
-    <hyperlink ref="B200" r:id="rId5" xr:uid="{31CCB880-90B9-4828-BBA2-C718839B1FD9}"/>
-    <hyperlink ref="B201" r:id="rId6" xr:uid="{DFEA6CDB-6C69-44FB-823A-1BBED7C9FC16}"/>
-    <hyperlink ref="B202" r:id="rId7" xr:uid="{76E1E3AA-F1AD-407B-9AA9-5932D2E80646}"/>
-    <hyperlink ref="B203" r:id="rId8" xr:uid="{0E359BAA-8830-461B-A3CC-B6E4ACF5BD68}"/>
-    <hyperlink ref="B204" r:id="rId9" xr:uid="{25B1B354-580E-4B5E-A91E-A20229C50DFE}"/>
-    <hyperlink ref="B205" r:id="rId10" xr:uid="{01FABB11-B402-4084-B512-FC1BB88FC5F9}"/>
+    <hyperlink ref="F193" r:id="rId1" display="P@trick07" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B198" r:id="rId2" xr:uid="{BB7752F3-F377-464B-ADE3-F79EDBBA4667}"/>
+    <hyperlink ref="B199" r:id="rId3" xr:uid="{EB82F820-B1BE-4073-8CD0-038EBFA4D55B}"/>
+    <hyperlink ref="B200" r:id="rId4" xr:uid="{31CCB880-90B9-4828-BBA2-C718839B1FD9}"/>
+    <hyperlink ref="B201" r:id="rId5" xr:uid="{DFEA6CDB-6C69-44FB-823A-1BBED7C9FC16}"/>
+    <hyperlink ref="B202" r:id="rId6" xr:uid="{76E1E3AA-F1AD-407B-9AA9-5932D2E80646}"/>
+    <hyperlink ref="B203" r:id="rId7" xr:uid="{0E359BAA-8830-461B-A3CC-B6E4ACF5BD68}"/>
+    <hyperlink ref="B204" r:id="rId8" xr:uid="{25B1B354-580E-4B5E-A91E-A20229C50DFE}"/>
+    <hyperlink ref="B205" r:id="rId9" xr:uid="{01FABB11-B402-4084-B512-FC1BB88FC5F9}"/>
+    <hyperlink ref="F184" r:id="rId10" display="P@trick07" xr:uid="{BD7B256D-235F-40E9-BCC7-0A907090B6CE}"/>
+    <hyperlink ref="F185" r:id="rId11" display="P@trick07" xr:uid="{743C069F-E4A0-4183-B3A0-F8EBE5B8F346}"/>
+    <hyperlink ref="F188" r:id="rId12" display="P@trick07" xr:uid="{5C2742F1-697C-4316-9230-BB5FCA363893}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Procedures/Franchise/Password.xlsx
+++ b/Procedures/Franchise/Password.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sources\Aquatiris\Docs\Procedures\Franchise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF6D9F0-1736-4EDE-8F12-3CF6B5D52A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91A3642-B926-45AA-A573-A5B21FBEAB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2223,7 +2223,7 @@
     <t>YCoutinho45!</t>
   </si>
   <si>
-    <t>AGautier28!</t>
+    <t>APotier78!</t>
   </si>
 </sst>
 </file>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="J2" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(97,122))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(97,122))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(1,9)</f>
-        <v>FsXfPVMS7</v>
+        <v>MiToDYNF2</v>
       </c>
       <c r="K2" t="s">
         <v>500</v>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="J3" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(97,122))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(97,122))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(1,9)</f>
-        <v>HvBzYQPC5</v>
+        <v>HgUfSYKP5</v>
       </c>
       <c r="K3" t="s">
         <v>501</v>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="J4" t="str">
         <f t="shared" ref="J4:J67" ca="1" si="2">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(97,122))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(97,122))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(1,9)</f>
-        <v>KsErIRCN9</v>
+        <v>WeQnIKGK2</v>
       </c>
       <c r="K4" t="s">
         <v>502</v>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="J5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ViJxATUS2</v>
+        <v>DhTdHQSM3</v>
       </c>
       <c r="K5" t="s">
         <v>503</v>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="J6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OrGeUIVW5</v>
+        <v>TkFkPGTD8</v>
       </c>
       <c r="K6" t="s">
         <v>504</v>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="J7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>VlFjLKJR4</v>
+        <v>QdOrZWPW7</v>
       </c>
       <c r="K7" t="s">
         <v>505</v>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="J8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>EhJmIPJQ5</v>
+        <v>YrBuORYC1</v>
       </c>
       <c r="K8" t="s">
         <v>506</v>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="J9" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(97,122))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(97,122))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(1,9)</f>
-        <v>TnRnLZJU8</v>
+        <v>GxBaCVSS6</v>
       </c>
       <c r="K9" t="s">
         <v>507</v>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="J10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>HzBnEZDX9</v>
+        <v>OwDxMBKE2</v>
       </c>
       <c r="K10" t="s">
         <v>508</v>
@@ -3493,7 +3493,7 @@
       </c>
       <c r="J11" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>JpYcNEAP3</v>
+        <v>SeJiYFPE1</v>
       </c>
       <c r="K11" t="s">
         <v>509</v>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="J12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FpExNVUK1</v>
+        <v>RfAySERN3</v>
       </c>
       <c r="K12" t="s">
         <v>510</v>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="J13" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OzNbMTSW7</v>
+        <v>VoAqESBN2</v>
       </c>
       <c r="K13" t="s">
         <v>511</v>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="J14" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OnUlVIAZ9</v>
+        <v>CcBlQPRQ2</v>
       </c>
       <c r="K14" t="s">
         <v>512</v>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="J15" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>UoYlQYBH1</v>
+        <v>FoRuDNRZ7</v>
       </c>
       <c r="K15" t="s">
         <v>513</v>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="J16" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>HuJbCLXP5</v>
+        <v>DtNoBILH7</v>
       </c>
       <c r="K16" t="s">
         <v>514</v>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="J17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>VkKtWMKU4</v>
+        <v>AiOyBMSB4</v>
       </c>
       <c r="K17" t="s">
         <v>515</v>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="J18" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>QlBjSYIP2</v>
+        <v>QcZzJFWW3</v>
       </c>
       <c r="K18" t="s">
         <v>516</v>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="J19" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>DgHnBWVO8</v>
+        <v>FlKzUHKB2</v>
       </c>
       <c r="K19" t="s">
         <v>517</v>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="J20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LkOwETMX5</v>
+        <v>AwWzJYAA8</v>
       </c>
       <c r="K20" t="s">
         <v>518</v>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="J21" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>IeMuDXPJ6</v>
+        <v>FaRwCAYF5</v>
       </c>
       <c r="K21" t="s">
         <v>519</v>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="J22" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>XfWeWYLH6</v>
+        <v>KxAtDBFV8</v>
       </c>
       <c r="K22" t="s">
         <v>520</v>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="J23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BzRsHQOW6</v>
+        <v>SzXeSLVA7</v>
       </c>
       <c r="K23" t="s">
         <v>521</v>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="J24" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>QuSnQTTN1</v>
+        <v>AtHqNSVB2</v>
       </c>
       <c r="K24" t="s">
         <v>522</v>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="J25" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OuSvMOHW4</v>
+        <v>GdNwWCZJ3</v>
       </c>
       <c r="K25" t="s">
         <v>523</v>
@@ -4108,7 +4108,7 @@
       </c>
       <c r="J26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BkLnMXRG1</v>
+        <v>HdAtXSUW7</v>
       </c>
       <c r="K26" t="s">
         <v>524</v>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="J27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LlTnHRHA5</v>
+        <v>CyEgMDUB8</v>
       </c>
       <c r="K27" t="s">
         <v>525</v>
@@ -4190,7 +4190,7 @@
       </c>
       <c r="J28" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OePqFOYR7</v>
+        <v>QdWqMUZQ4</v>
       </c>
       <c r="K28" t="s">
         <v>526</v>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="J29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OfTlZBQY2</v>
+        <v>QrRdVHID7</v>
       </c>
       <c r="K29" t="s">
         <v>527</v>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="J30" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>YfFrFNFN9</v>
+        <v>CsEoFSEE4</v>
       </c>
       <c r="K30" t="s">
         <v>528</v>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="J31" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>HqUaKYAW2</v>
+        <v>FeFrLAOQ9</v>
       </c>
       <c r="K31" t="s">
         <v>529</v>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="J32" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>YwSoZLEC5</v>
+        <v>DqHsVVTJ2</v>
       </c>
       <c r="K32" t="s">
         <v>530</v>
@@ -4395,7 +4395,7 @@
       </c>
       <c r="J33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FtTvZABT5</v>
+        <v>PpGmVULL8</v>
       </c>
       <c r="K33" t="s">
         <v>531</v>
@@ -4436,7 +4436,7 @@
       </c>
       <c r="J34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>CrYoKYJN3</v>
+        <v>XiTfOUKM6</v>
       </c>
       <c r="K34" t="s">
         <v>532</v>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="J35" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>UhYcBMJN2</v>
+        <v>UnAmPSYS9</v>
       </c>
       <c r="K35" t="s">
         <v>533</v>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="J36" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FeXeLZHS3</v>
+        <v>LbOkVQIZ6</v>
       </c>
       <c r="K36" t="s">
         <v>534</v>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="J37" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OwGfWEKI4</v>
+        <v>YbBoBSSG9</v>
       </c>
       <c r="K37" t="s">
         <v>535</v>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="J38" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NqIeAXOV4</v>
+        <v>CqTwCEJB9</v>
       </c>
       <c r="K38" t="s">
         <v>536</v>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="J39" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>GhAdVZXC8</v>
+        <v>FhDxARZY3</v>
       </c>
       <c r="K39" t="s">
         <v>537</v>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="J40" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>RsQhGMPA4</v>
+        <v>NlMqUGDV7</v>
       </c>
       <c r="K40" t="s">
         <v>538</v>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="J41" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PvLjDZNZ2</v>
+        <v>NeDvBGPB8</v>
       </c>
       <c r="K41" t="s">
         <v>539</v>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="J42" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LxRxHJOE2</v>
+        <v>ErIdOVNF2</v>
       </c>
       <c r="K42" t="s">
         <v>540</v>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="J43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>KxVhIFMZ2</v>
+        <v>OuEbAFPE5</v>
       </c>
       <c r="K43" t="s">
         <v>541</v>
@@ -4846,7 +4846,7 @@
       </c>
       <c r="J44" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TwSaSFST9</v>
+        <v>YzUfEDCE9</v>
       </c>
       <c r="K44" t="s">
         <v>542</v>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="J45" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>HhKwDTQY8</v>
+        <v>GsMbFVBA9</v>
       </c>
       <c r="K45" t="s">
         <v>543</v>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="J46" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PbAyJHTB4</v>
+        <v>EpJhTXLT8</v>
       </c>
       <c r="K46" t="s">
         <v>544</v>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="J47" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>XvUsKRPF5</v>
+        <v>MpMfVNXV8</v>
       </c>
       <c r="K47" t="s">
         <v>545</v>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="J48" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>QrCbYIYN3</v>
+        <v>UyZxZFKF1</v>
       </c>
       <c r="K48" t="s">
         <v>546</v>
@@ -5051,7 +5051,7 @@
       </c>
       <c r="J49" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>XqAdNMJS3</v>
+        <v>NfFfGAVZ4</v>
       </c>
       <c r="K49" t="s">
         <v>547</v>
@@ -5092,7 +5092,7 @@
       </c>
       <c r="J50" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>JmHhSJUU2</v>
+        <v>ZoVdWEUV4</v>
       </c>
       <c r="K50" t="s">
         <v>548</v>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="J51" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NaPvENEE1</v>
+        <v>TdFlVIIU9</v>
       </c>
       <c r="K51" t="s">
         <v>549</v>
@@ -5174,7 +5174,7 @@
       </c>
       <c r="J52" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>VzEoBNEY5</v>
+        <v>FyRsVIJJ5</v>
       </c>
       <c r="K52" t="s">
         <v>550</v>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="J53" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>CbBaLSWR4</v>
+        <v>JmKoWLOX1</v>
       </c>
       <c r="K53" t="s">
         <v>551</v>
@@ -5256,7 +5256,7 @@
       </c>
       <c r="J54" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>UsNmHTPC7</v>
+        <v>MaPoNEHZ4</v>
       </c>
       <c r="K54" t="s">
         <v>552</v>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="J55" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FcCxXRLC7</v>
+        <v>ItUtWDPW3</v>
       </c>
       <c r="K55" t="s">
         <v>553</v>
@@ -5338,7 +5338,7 @@
       </c>
       <c r="J56" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>EkGeIFMC6</v>
+        <v>UwEbXEWH1</v>
       </c>
       <c r="K56" t="s">
         <v>554</v>
@@ -5379,7 +5379,7 @@
       </c>
       <c r="J57" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>RxUzCXPO5</v>
+        <v>FeAgFWFN8</v>
       </c>
       <c r="K57" t="s">
         <v>555</v>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="J58" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnJiGCST5</v>
+        <v>McPyIAIL9</v>
       </c>
       <c r="K58" t="s">
         <v>556</v>
@@ -5461,7 +5461,7 @@
       </c>
       <c r="J59" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>RaYjTLIT1</v>
+        <v>DkUqOEEG7</v>
       </c>
       <c r="K59" t="s">
         <v>557</v>
@@ -5502,7 +5502,7 @@
       </c>
       <c r="J60" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>YfUtQNCY6</v>
+        <v>OgWcBRHX1</v>
       </c>
       <c r="K60" t="s">
         <v>558</v>
@@ -5543,7 +5543,7 @@
       </c>
       <c r="J61" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ZgCzAXEI3</v>
+        <v>OzZuSRJN4</v>
       </c>
       <c r="K61" t="s">
         <v>559</v>
@@ -5584,7 +5584,7 @@
       </c>
       <c r="J62" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>MgKtLFXS6</v>
+        <v>ZfJwLJPH5</v>
       </c>
       <c r="K62" t="s">
         <v>560</v>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="J63" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BsAfYLLR3</v>
+        <v>YcFjSLHL2</v>
       </c>
       <c r="K63" t="s">
         <v>561</v>
@@ -5666,7 +5666,7 @@
       </c>
       <c r="J64" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BhMwOBKJ6</v>
+        <v>VqFhYMXV6</v>
       </c>
       <c r="K64" t="s">
         <v>562</v>
@@ -5707,7 +5707,7 @@
       </c>
       <c r="J65" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OmOfYJOM7</v>
+        <v>UvBeBSVM9</v>
       </c>
       <c r="K65" t="s">
         <v>563</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="J66" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>CyKkBYXC6</v>
+        <v>VjScGVVP1</v>
       </c>
       <c r="K66" t="s">
         <v>564</v>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="J67" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NcHeVZXE8</v>
+        <v>XfGnDCJV6</v>
       </c>
       <c r="K67" t="s">
         <v>565</v>
@@ -5830,7 +5830,7 @@
       </c>
       <c r="J68" t="str">
         <f t="shared" ref="J68:J131" ca="1" si="7">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(97,122))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(97,122))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(1,9)</f>
-        <v>QzJoVOKD9</v>
+        <v>KsFwULCC6</v>
       </c>
       <c r="K68" t="s">
         <v>566</v>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="J69" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>XyWbFXOW8</v>
+        <v>PaKoDICJ4</v>
       </c>
       <c r="K69" t="s">
         <v>567</v>
@@ -5912,7 +5912,7 @@
       </c>
       <c r="J70" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>AiKkXROO6</v>
+        <v>AdXhJALS7</v>
       </c>
       <c r="K70" t="s">
         <v>568</v>
@@ -5953,7 +5953,7 @@
       </c>
       <c r="J71" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>PcEhVNUT7</v>
+        <v>EuNpGTYS5</v>
       </c>
       <c r="K71" t="s">
         <v>569</v>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="J72" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>DpWeGINJ7</v>
+        <v>BcRaYBQS1</v>
       </c>
       <c r="K72" t="s">
         <v>570</v>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="J73" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>WkWpBDEI2</v>
+        <v>PbMvSTRI6</v>
       </c>
       <c r="K73" t="s">
         <v>571</v>
@@ -6076,7 +6076,7 @@
       </c>
       <c r="J74" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>WlMhZIVZ9</v>
+        <v>BrNzKCGG8</v>
       </c>
       <c r="K74" t="s">
         <v>572</v>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="J75" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>KeNiTLAH9</v>
+        <v>DiBkNFJD8</v>
       </c>
       <c r="K75" t="s">
         <v>573</v>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="J76" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>YeUkOZQL9</v>
+        <v>FoGnXROP1</v>
       </c>
       <c r="K76" t="s">
         <v>574</v>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="J77" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>KqJjCTGK7</v>
+        <v>YpOsQMSC1</v>
       </c>
       <c r="K77" t="s">
         <v>575</v>
@@ -6240,7 +6240,7 @@
       </c>
       <c r="J78" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>OrCwSOGX5</v>
+        <v>JsEhJKYP6</v>
       </c>
       <c r="K78" t="s">
         <v>576</v>
@@ -6281,7 +6281,7 @@
       </c>
       <c r="J79" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>TrBnSCFD1</v>
+        <v>XsLwCIXH2</v>
       </c>
       <c r="K79" t="s">
         <v>577</v>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="J80" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>KcSyWHLX4</v>
+        <v>YmItAKKP3</v>
       </c>
       <c r="K80" t="s">
         <v>578</v>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="J81" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>TlHsACRK1</v>
+        <v>DaRuENEQ1</v>
       </c>
       <c r="K81" t="s">
         <v>579</v>
@@ -6404,7 +6404,7 @@
       </c>
       <c r="J82" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>WxRjNFIO3</v>
+        <v>BmRjHTGU1</v>
       </c>
       <c r="K82" t="s">
         <v>580</v>
@@ -6445,7 +6445,7 @@
       </c>
       <c r="J83" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>IpVnFXXR7</v>
+        <v>YsHcAQPA6</v>
       </c>
       <c r="K83" t="s">
         <v>581</v>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="J84" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>YiPvMCEB9</v>
+        <v>QnAhYFAL1</v>
       </c>
       <c r="K84" t="s">
         <v>582</v>
@@ -6527,7 +6527,7 @@
       </c>
       <c r="J85" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>YaHhYKNS9</v>
+        <v>DbLpPGHT5</v>
       </c>
       <c r="K85" t="s">
         <v>583</v>
@@ -6568,7 +6568,7 @@
       </c>
       <c r="J86" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>HtZqPHQQ9</v>
+        <v>SpFnKBLK1</v>
       </c>
       <c r="K86" t="s">
         <v>584</v>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="J87" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>QoMfYLOB4</v>
+        <v>CuUhQRIP8</v>
       </c>
       <c r="K87" t="s">
         <v>585</v>
@@ -6650,7 +6650,7 @@
       </c>
       <c r="J88" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>NqHaYIQF1</v>
+        <v>SeHhSCVM9</v>
       </c>
       <c r="K88" t="s">
         <v>586</v>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="J89" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>XtBaQJCP3</v>
+        <v>MeDcSPAC2</v>
       </c>
       <c r="K89" t="s">
         <v>587</v>
@@ -6732,7 +6732,7 @@
       </c>
       <c r="J90" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>MpEfEDAC9</v>
+        <v>PeRiIWPK3</v>
       </c>
       <c r="K90" t="s">
         <v>588</v>
@@ -6773,7 +6773,7 @@
       </c>
       <c r="J91" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>YuUlULQT9</v>
+        <v>AmTrNQVL1</v>
       </c>
       <c r="K91" t="s">
         <v>589</v>
@@ -6814,7 +6814,7 @@
       </c>
       <c r="J92" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>MtSeDPUY4</v>
+        <v>RqFsMDWI3</v>
       </c>
       <c r="K92" t="s">
         <v>590</v>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="J93" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>XzIjMJIQ4</v>
+        <v>CgOtQPIM2</v>
       </c>
       <c r="K93" t="s">
         <v>591</v>
@@ -6896,7 +6896,7 @@
       </c>
       <c r="J94" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>MrSmCMSN7</v>
+        <v>XzIaBWIP8</v>
       </c>
       <c r="K94" t="s">
         <v>592</v>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="J95" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>DdAaEHJK3</v>
+        <v>NxKhRGII5</v>
       </c>
       <c r="K95" t="s">
         <v>593</v>
@@ -6978,7 +6978,7 @@
       </c>
       <c r="J96" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>XhYwRRIV8</v>
+        <v>YyWfULGM1</v>
       </c>
       <c r="K96" t="s">
         <v>594</v>
@@ -7019,7 +7019,7 @@
       </c>
       <c r="J97" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>NeKyHAVM7</v>
+        <v>MaJyVXWQ7</v>
       </c>
       <c r="K97" t="s">
         <v>595</v>
@@ -7060,7 +7060,7 @@
       </c>
       <c r="J98" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>SrXjGLKY6</v>
+        <v>WmRaLLFB4</v>
       </c>
       <c r="K98" t="s">
         <v>596</v>
@@ -7101,7 +7101,7 @@
       </c>
       <c r="J99" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>MaUzIAYB3</v>
+        <v>PnXcHRKS6</v>
       </c>
       <c r="K99" t="s">
         <v>597</v>
@@ -7142,7 +7142,7 @@
       </c>
       <c r="J100" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>RvDsNYVT1</v>
+        <v>KqQsBXCF4</v>
       </c>
       <c r="K100" t="s">
         <v>598</v>
@@ -7183,7 +7183,7 @@
       </c>
       <c r="J101" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>RfEwIYUB6</v>
+        <v>TfFhTOMS3</v>
       </c>
       <c r="K101" t="s">
         <v>599</v>
@@ -7224,7 +7224,7 @@
       </c>
       <c r="J102" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>QdFkXQTJ9</v>
+        <v>GbLdYIWP8</v>
       </c>
       <c r="K102" t="s">
         <v>600</v>
@@ -7265,7 +7265,7 @@
       </c>
       <c r="J103" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>ZsIiKYEP9</v>
+        <v>GzCxAFZE3</v>
       </c>
       <c r="K103" t="s">
         <v>601</v>
@@ -7306,7 +7306,7 @@
       </c>
       <c r="J104" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>EdYmOIIS3</v>
+        <v>XbUiXCVI1</v>
       </c>
       <c r="K104" t="s">
         <v>602</v>
@@ -7347,7 +7347,7 @@
       </c>
       <c r="J105" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>LpItGSDI2</v>
+        <v>RiYxVCFV7</v>
       </c>
       <c r="K105" t="s">
         <v>603</v>
@@ -7388,7 +7388,7 @@
       </c>
       <c r="J106" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>RbHvXBJJ1</v>
+        <v>WoFfAKFQ5</v>
       </c>
       <c r="K106" t="s">
         <v>604</v>
@@ -7429,7 +7429,7 @@
       </c>
       <c r="J107" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>QnLcFAKH8</v>
+        <v>YmQgKTMK6</v>
       </c>
       <c r="K107" t="s">
         <v>605</v>
@@ -7470,7 +7470,7 @@
       </c>
       <c r="J108" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>DdCdWFTC9</v>
+        <v>QdTiJSTB3</v>
       </c>
       <c r="K108" t="s">
         <v>606</v>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="J109" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>VeTrLKRD1</v>
+        <v>VoUtXHRX3</v>
       </c>
       <c r="K109" t="s">
         <v>607</v>
@@ -7552,7 +7552,7 @@
       </c>
       <c r="J110" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>QfZvXABH2</v>
+        <v>NbOaRQYL7</v>
       </c>
       <c r="K110" t="s">
         <v>608</v>
@@ -7593,7 +7593,7 @@
       </c>
       <c r="J111" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>WhQjTMIK6</v>
+        <v>VnZmBJYF3</v>
       </c>
       <c r="K111" t="s">
         <v>609</v>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="J112" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>PpRrNSMX1</v>
+        <v>TjUjTTUD8</v>
       </c>
       <c r="K112" t="s">
         <v>610</v>
@@ -7675,7 +7675,7 @@
       </c>
       <c r="J113" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>ZaKiUXVC8</v>
+        <v>EoOsMYTD3</v>
       </c>
       <c r="K113" t="s">
         <v>611</v>
@@ -7716,7 +7716,7 @@
       </c>
       <c r="J114" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>JfRjVDXG2</v>
+        <v>LcEsRDWI8</v>
       </c>
       <c r="K114" t="s">
         <v>612</v>
@@ -7757,7 +7757,7 @@
       </c>
       <c r="J115" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>XjYcUANV2</v>
+        <v>OdJzXLOC4</v>
       </c>
       <c r="K115" t="s">
         <v>613</v>
@@ -7798,7 +7798,7 @@
       </c>
       <c r="J116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>WzJnZATK4</v>
+        <v>QcRnSUXU9</v>
       </c>
       <c r="K116" t="s">
         <v>614</v>
@@ -7839,7 +7839,7 @@
       </c>
       <c r="J117" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>ZzNjCPJQ3</v>
+        <v>AtFkNPYD9</v>
       </c>
       <c r="K117" t="s">
         <v>615</v>
@@ -7880,7 +7880,7 @@
       </c>
       <c r="J118" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>ZcAoSZNN1</v>
+        <v>RlKhXNGI4</v>
       </c>
       <c r="K118" t="s">
         <v>616</v>
@@ -7921,7 +7921,7 @@
       </c>
       <c r="J119" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>MxJcSJAR7</v>
+        <v>McSjGTNB7</v>
       </c>
       <c r="K119" t="s">
         <v>617</v>
@@ -7962,7 +7962,7 @@
       </c>
       <c r="J120" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>UhLwNCGH3</v>
+        <v>YpOwACKH1</v>
       </c>
       <c r="K120" t="s">
         <v>618</v>
@@ -8003,7 +8003,7 @@
       </c>
       <c r="J121" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>BzMrGGEQ8</v>
+        <v>VhRvOUUK9</v>
       </c>
       <c r="K121" t="s">
         <v>619</v>
@@ -8044,7 +8044,7 @@
       </c>
       <c r="J122" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>QtZtVFBA4</v>
+        <v>DgAtQAMQ1</v>
       </c>
       <c r="K122" t="s">
         <v>620</v>
@@ -8085,7 +8085,7 @@
       </c>
       <c r="J123" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>EwUgVBGH4</v>
+        <v>HjZoHESL6</v>
       </c>
       <c r="K123" t="s">
         <v>621</v>
@@ -8126,7 +8126,7 @@
       </c>
       <c r="J124" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>HhRoLYWL8</v>
+        <v>XiZkNUKU8</v>
       </c>
       <c r="K124" t="s">
         <v>622</v>
@@ -8167,7 +8167,7 @@
       </c>
       <c r="J125" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>TvLaVLPC9</v>
+        <v>OmVtUWNU7</v>
       </c>
       <c r="K125" t="s">
         <v>623</v>
@@ -8208,7 +8208,7 @@
       </c>
       <c r="J126" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>FaQtXPED4</v>
+        <v>KmAmPLNH1</v>
       </c>
       <c r="K126" t="s">
         <v>624</v>
@@ -8249,7 +8249,7 @@
       </c>
       <c r="J127" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>PtYwPWDO9</v>
+        <v>CiKlFJIP8</v>
       </c>
       <c r="K127" t="s">
         <v>625</v>
@@ -8290,7 +8290,7 @@
       </c>
       <c r="J128" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>UpIeTBOT8</v>
+        <v>PaIuCDMM8</v>
       </c>
       <c r="K128" t="s">
         <v>626</v>
@@ -8331,7 +8331,7 @@
       </c>
       <c r="J129" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>YzLyGFIN2</v>
+        <v>WcTxLBJK5</v>
       </c>
       <c r="K129" t="s">
         <v>627</v>
@@ -8372,7 +8372,7 @@
       </c>
       <c r="J130" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>EbCkCWTW4</v>
+        <v>LiOzYAMG3</v>
       </c>
       <c r="K130" t="s">
         <v>628</v>
@@ -8413,7 +8413,7 @@
       </c>
       <c r="J131" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>UhWtFTZP7</v>
+        <v>TsGnQQIQ6</v>
       </c>
       <c r="K131" t="s">
         <v>629</v>
@@ -8454,7 +8454,7 @@
       </c>
       <c r="J132" t="str">
         <f t="shared" ref="J132:J185" ca="1" si="12">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(97,122))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(97,122))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(1,9)</f>
-        <v>QkNyGIQT7</v>
+        <v>TgQfVWTC2</v>
       </c>
       <c r="K132" t="s">
         <v>630</v>
@@ -8495,7 +8495,7 @@
       </c>
       <c r="J133" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>WlIrBDVN2</v>
+        <v>RhTsLOBO8</v>
       </c>
       <c r="K133" t="s">
         <v>631</v>
@@ -8536,7 +8536,7 @@
       </c>
       <c r="J134" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>AaWsWXGR6</v>
+        <v>AkBaZTXC5</v>
       </c>
       <c r="K134" t="s">
         <v>632</v>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="J135" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>HuZgTGLG8</v>
+        <v>RiNoYFAA2</v>
       </c>
       <c r="K135" t="s">
         <v>633</v>
@@ -8618,7 +8618,7 @@
       </c>
       <c r="J136" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>XuNtZNBV2</v>
+        <v>JsReQRJH3</v>
       </c>
       <c r="K136" t="s">
         <v>634</v>
@@ -8659,7 +8659,7 @@
       </c>
       <c r="J137" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>ZeSzBLGF3</v>
+        <v>LkTgJHXE5</v>
       </c>
       <c r="K137" t="s">
         <v>635</v>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="J138" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>FnWdBZSF6</v>
+        <v>ZxWzHDQX2</v>
       </c>
       <c r="K138" t="s">
         <v>636</v>
@@ -8741,7 +8741,7 @@
       </c>
       <c r="J139" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>SqLjYDOZ1</v>
+        <v>YhLxIGQF6</v>
       </c>
       <c r="K139" t="s">
         <v>637</v>
@@ -8782,7 +8782,7 @@
       </c>
       <c r="J140" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>QqUcZYCH4</v>
+        <v>JjVvVQVX9</v>
       </c>
       <c r="K140" t="s">
         <v>638</v>
@@ -8823,7 +8823,7 @@
       </c>
       <c r="J141" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>PbToPHDJ6</v>
+        <v>MtVwYJVT7</v>
       </c>
       <c r="K141" t="s">
         <v>639</v>
@@ -8864,7 +8864,7 @@
       </c>
       <c r="J142" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>ZaPlIQTT1</v>
+        <v>SrRzNTFF1</v>
       </c>
       <c r="K142" t="s">
         <v>640</v>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="J143" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>FwKhYLJG5</v>
+        <v>EnCaMRPC1</v>
       </c>
       <c r="K143" t="s">
         <v>641</v>
@@ -8946,7 +8946,7 @@
       </c>
       <c r="J144" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>DrXhGYKX6</v>
+        <v>NnVqGYSO7</v>
       </c>
       <c r="K144" t="s">
         <v>642</v>
@@ -8987,7 +8987,7 @@
       </c>
       <c r="J145" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>IpBsOKBK3</v>
+        <v>AwUlURVI5</v>
       </c>
       <c r="K145" t="s">
         <v>643</v>
@@ -9028,7 +9028,7 @@
       </c>
       <c r="J146" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>JzBxBIAM3</v>
+        <v>QmOuWYZU8</v>
       </c>
       <c r="K146" t="s">
         <v>644</v>
@@ -9069,7 +9069,7 @@
       </c>
       <c r="J147" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>ThOpZHOK3</v>
+        <v>SjUtLMQR2</v>
       </c>
       <c r="K147" t="s">
         <v>645</v>
@@ -9110,7 +9110,7 @@
       </c>
       <c r="J148" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>LlOpDJQQ7</v>
+        <v>YdSkGDPZ5</v>
       </c>
       <c r="K148" t="s">
         <v>646</v>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="J149" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>OgNdUQHL6</v>
+        <v>SbBbILGD2</v>
       </c>
       <c r="K149" t="s">
         <v>647</v>
@@ -9192,7 +9192,7 @@
       </c>
       <c r="J150" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>PgQmEVAK2</v>
+        <v>MgIaENUX3</v>
       </c>
       <c r="K150" t="s">
         <v>648</v>
@@ -9233,7 +9233,7 @@
       </c>
       <c r="J151" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>RrAqEXKX6</v>
+        <v>TgGiLLWJ7</v>
       </c>
       <c r="K151" t="s">
         <v>649</v>
@@ -9274,7 +9274,7 @@
       </c>
       <c r="J152" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>QnSsBDPZ2</v>
+        <v>ZlPaRMVF9</v>
       </c>
       <c r="K152" t="s">
         <v>650</v>
@@ -9315,7 +9315,7 @@
       </c>
       <c r="J153" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>YwDtECRS3</v>
+        <v>RaQzAVGW4</v>
       </c>
       <c r="K153" t="s">
         <v>651</v>
@@ -9356,7 +9356,7 @@
       </c>
       <c r="J154" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>QjQwKVTL6</v>
+        <v>NqJgYOIC9</v>
       </c>
       <c r="K154" t="s">
         <v>652</v>
@@ -9397,7 +9397,7 @@
       </c>
       <c r="J155" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>DbWpMAII5</v>
+        <v>VrDjDJRY9</v>
       </c>
       <c r="K155" t="s">
         <v>653</v>
@@ -9438,7 +9438,7 @@
       </c>
       <c r="J156" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>IzIpDYZH3</v>
+        <v>OpRnQMUP9</v>
       </c>
       <c r="K156" t="s">
         <v>654</v>
@@ -9479,7 +9479,7 @@
       </c>
       <c r="J157" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>TfPuKAXK2</v>
+        <v>WpLuYBAZ5</v>
       </c>
       <c r="K157" t="s">
         <v>655</v>
@@ -9520,7 +9520,7 @@
       </c>
       <c r="J158" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>BvKnFPKN3</v>
+        <v>CyCkULPS5</v>
       </c>
       <c r="K158" t="s">
         <v>656</v>
@@ -9561,7 +9561,7 @@
       </c>
       <c r="J159" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>ZdIyCNGV1</v>
+        <v>FjCdJMLT2</v>
       </c>
       <c r="K159" t="s">
         <v>657</v>
@@ -9602,7 +9602,7 @@
       </c>
       <c r="J160" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>HsWoKXUE8</v>
+        <v>MiTuBFCH9</v>
       </c>
       <c r="K160" t="s">
         <v>658</v>
@@ -9643,7 +9643,7 @@
       </c>
       <c r="J161" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>AdJbRZPP5</v>
+        <v>KgUlVQUK6</v>
       </c>
       <c r="K161" t="s">
         <v>659</v>
@@ -9684,7 +9684,7 @@
       </c>
       <c r="J162" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>HkJpPDSV5</v>
+        <v>PkIcSAJC1</v>
       </c>
       <c r="K162" t="s">
         <v>660</v>
@@ -9725,7 +9725,7 @@
       </c>
       <c r="J163" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>BjZpWPDH1</v>
+        <v>LuKyXPGR5</v>
       </c>
       <c r="K163" t="s">
         <v>661</v>
@@ -9766,7 +9766,7 @@
       </c>
       <c r="J164" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>UaHsTFTF3</v>
+        <v>PtPxSBBN1</v>
       </c>
       <c r="K164" t="s">
         <v>662</v>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="J165" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>VrLrIHQY9</v>
+        <v>IdScFRDO4</v>
       </c>
       <c r="K165" t="s">
         <v>663</v>
@@ -9848,7 +9848,7 @@
       </c>
       <c r="J166" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>OrTlRCWI5</v>
+        <v>SpAdFHOD4</v>
       </c>
       <c r="K166" t="s">
         <v>664</v>
@@ -9889,7 +9889,7 @@
       </c>
       <c r="J167" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>SsEpOQQQ2</v>
+        <v>CvTrZVSM4</v>
       </c>
       <c r="K167" t="s">
         <v>665</v>
@@ -9930,7 +9930,7 @@
       </c>
       <c r="J168" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>UyJhGUBF3</v>
+        <v>GpYyMWVG3</v>
       </c>
       <c r="K168" t="s">
         <v>666</v>
@@ -9971,7 +9971,7 @@
       </c>
       <c r="J169" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>TsQrZLAL8</v>
+        <v>VnPhQXTS8</v>
       </c>
       <c r="K169" t="s">
         <v>667</v>
@@ -10012,7 +10012,7 @@
       </c>
       <c r="J170" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>EmLeZHJJ4</v>
+        <v>YjGxIFVZ1</v>
       </c>
       <c r="K170" t="s">
         <v>668</v>
@@ -10053,7 +10053,7 @@
       </c>
       <c r="J171" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>JxBjCHUD1</v>
+        <v>ZeJpOCGI1</v>
       </c>
       <c r="K171" t="s">
         <v>669</v>
@@ -10094,7 +10094,7 @@
       </c>
       <c r="J172" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>EwPuMRMJ2</v>
+        <v>ScCoKYTH2</v>
       </c>
       <c r="K172" t="s">
         <v>670</v>
@@ -10135,7 +10135,7 @@
       </c>
       <c r="J173" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>WrToDVJU2</v>
+        <v>BtJrXGXO4</v>
       </c>
       <c r="K173" t="s">
         <v>671</v>
@@ -10176,7 +10176,7 @@
       </c>
       <c r="J174" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>ZfRuRAWT8</v>
+        <v>VcWrUDCK9</v>
       </c>
       <c r="K174" t="s">
         <v>672</v>
@@ -10217,7 +10217,7 @@
       </c>
       <c r="J175" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>TcEaEPPQ5</v>
+        <v>WzAmPRBP1</v>
       </c>
       <c r="K175" t="s">
         <v>673</v>
@@ -10258,7 +10258,7 @@
       </c>
       <c r="J176" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>TgZtZPOY7</v>
+        <v>NoMbUMYG8</v>
       </c>
       <c r="K176" t="s">
         <v>674</v>
@@ -10299,7 +10299,7 @@
       </c>
       <c r="J177" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>WwJdUCCY6</v>
+        <v>RfQgBFBF3</v>
       </c>
       <c r="K177" t="s">
         <v>675</v>
@@ -10340,7 +10340,7 @@
       </c>
       <c r="J178" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>DwRcZQHI7</v>
+        <v>CkGtNCWM1</v>
       </c>
       <c r="K178" t="s">
         <v>676</v>
@@ -10381,7 +10381,7 @@
       </c>
       <c r="J179" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>LvBuSJEX9</v>
+        <v>GtXsSIZJ6</v>
       </c>
       <c r="K179" t="s">
         <v>677</v>
@@ -10422,7 +10422,7 @@
       </c>
       <c r="J180" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>HvChNCXQ1</v>
+        <v>TgRbZOZB9</v>
       </c>
       <c r="K180" t="s">
         <v>678</v>
@@ -10463,7 +10463,7 @@
       </c>
       <c r="J181" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>WjGlRZTG1</v>
+        <v>WcHoIVJA9</v>
       </c>
       <c r="K181" t="s">
         <v>679</v>
@@ -10480,7 +10480,7 @@
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J182" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>GrDtUPJE9</v>
+        <v>AiHqJQTN6</v>
       </c>
       <c r="K182" t="s">
         <v>680</v>
@@ -10489,7 +10489,7 @@
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J183" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>DkCjXXSS9</v>
+        <v>UdNkGOGT5</v>
       </c>
       <c r="K183" t="s">
         <v>681</v>
@@ -10501,7 +10501,7 @@
       </c>
       <c r="J184" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>KoVwOEIM6</v>
+        <v>WvRbJBIQ2</v>
       </c>
       <c r="K184" t="s">
         <v>682</v>
@@ -10513,7 +10513,7 @@
       </c>
       <c r="J185" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>AmBnQUVQ2</v>
+        <v>SuBnLDYF5</v>
       </c>
       <c r="K185" t="s">
         <v>683</v>
@@ -10528,7 +10528,7 @@
       </c>
       <c r="G188" t="str">
         <f>CONCATENATE(E188,F188)</f>
-        <v>ANTJnTKsaVfxVtYNIpWt16MYKOspdjGJanpuCQTfu58qTzS0S7qZ5iDEAGautier28!</v>
+        <v>ANTJnTKsaVfxVtYNIpWt16MYKOspdjGJanpuCQTfu58qTzS0S7qZ5iDEAPotier78!</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -10549,7 +10549,7 @@
       </c>
       <c r="G190" t="str">
         <f>SUBSTITUTE(G189,"##CHAINE##",G188)</f>
-        <v>Select md5('ANTJnTKsaVfxVtYNIpWt16MYKOspdjGJanpuCQTfu58qTzS0S7qZ5iDEAGautier28!')</v>
+        <v>Select md5('ANTJnTKsaVfxVtYNIpWt16MYKOspdjGJanpuCQTfu58qTzS0S7qZ5iDEAPotier78!')</v>
       </c>
     </row>
     <row r="193" spans="2:14" x14ac:dyDescent="0.25">
